--- a/outreach_activity_counts.xlsx
+++ b/outreach_activity_counts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Outreach Activity</t>
   </si>
@@ -34,253 +34,163 @@
     <t>Presentation</t>
   </si>
   <si>
-    <t>Healthy Cuts Event</t>
-  </si>
-  <si>
     <t>Advocacy, Tabling Event</t>
   </si>
   <si>
     <t>Presentation, Tabling Event</t>
   </si>
   <si>
+    <t>Advocacy, Presentation</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
     <t>Tabling</t>
   </si>
   <si>
     <t>Health Event</t>
   </si>
   <si>
-    <t>Advocacy, Presentation</t>
-  </si>
-  <si>
-    <t>Training</t>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>HR Onboarding</t>
+  </si>
+  <si>
+    <t>tour/partnership</t>
+  </si>
+  <si>
+    <t>Outreach &amp; Navigation</t>
+  </si>
+  <si>
+    <t>Advocacy, Meeting/partnership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacity Building </t>
+  </si>
+  <si>
+    <t>Community engagement</t>
+  </si>
+  <si>
+    <t>Advocacy, Presentation, Tabling Event</t>
+  </si>
+  <si>
+    <t>Onsite Outreach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team huddle,  meeting with Cameron, meeting with Misha and Arie to best determine coverage for the remainder of the week. Also sure we are on the same page on form submission </t>
+  </si>
+  <si>
+    <t>CUC MEETING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUC/MONTHLY MEETING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partnership Building </t>
+  </si>
+  <si>
+    <t>Advocacy, data collection</t>
+  </si>
+  <si>
+    <t>tour and partnership</t>
+  </si>
+  <si>
+    <t>Followed up 22 contacts collected throughout the week.  Impact and engagement forms. Follow up  calls</t>
+  </si>
+  <si>
+    <t>Schedule appointments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client navigation </t>
+  </si>
+  <si>
+    <t>scheduling meeting/ tour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advocacy, </t>
+  </si>
+  <si>
+    <t>administrative</t>
+  </si>
+  <si>
+    <t>Follow up on unhoused contacts,  team meeting,  newsletter submissions,  return calls</t>
+  </si>
+  <si>
+    <t>Huddle Navigation</t>
+  </si>
+  <si>
+    <t>HR onboarding</t>
+  </si>
+  <si>
+    <t>Presentation,  Mental Health First Aid Training</t>
+  </si>
+  <si>
+    <t>Navigation Huddle</t>
+  </si>
+  <si>
+    <t>In person event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW PROPERTY TOUR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECHO PSH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Event /Tabling </t>
   </si>
   <si>
     <t>Movement is Medicine</t>
   </si>
   <si>
-    <t>Outreach &amp; Navigation</t>
-  </si>
-  <si>
-    <t>Community First Village Onsite Outreach</t>
-  </si>
-  <si>
-    <t>tour/partnership</t>
-  </si>
-  <si>
-    <t>HR Onboarding</t>
-  </si>
-  <si>
-    <t>meeting</t>
+    <t>Continuous education/Training</t>
+  </si>
+  <si>
+    <t>Huddle weekly meeting</t>
+  </si>
+  <si>
+    <t>Community engagement /outreach networking</t>
+  </si>
+  <si>
+    <t>Community Engagement</t>
+  </si>
+  <si>
+    <t>Weekly staff meeting</t>
+  </si>
+  <si>
+    <t>Event (virtual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team meeting, training, and meeting with Dominique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movement is medicine </t>
+  </si>
+  <si>
+    <t>huddle</t>
+  </si>
+  <si>
+    <t>TCSO jail application and meeting with Cameron</t>
+  </si>
+  <si>
+    <t>Mental HealthTraining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental Health First Aid Training </t>
+  </si>
+  <si>
+    <t>Presentation, Mental Training</t>
   </si>
   <si>
     <t>Action planning</t>
   </si>
   <si>
-    <t>HR onboarding</t>
-  </si>
-  <si>
     <t>Event (virtual), Presentation</t>
   </si>
   <si>
     <t>Advocacy, Participant outreach</t>
-  </si>
-  <si>
-    <t>Presentation, Mental Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mental Health First Aid Training </t>
-  </si>
-  <si>
-    <t>Mental HealthTraining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team meeting, training, and meeting with Dominique </t>
-  </si>
-  <si>
-    <t>Navigation Huddle</t>
-  </si>
-  <si>
-    <t>Advocacy, data collection</t>
-  </si>
-  <si>
-    <t>TCSO jail application and meeting with Cameron</t>
-  </si>
-  <si>
-    <t>Presentation,  Mental Health First Aid Training</t>
-  </si>
-  <si>
-    <t>Advocacy, Presentation, Tabling Event</t>
-  </si>
-  <si>
-    <t>Onsite Outreach</t>
-  </si>
-  <si>
-    <t>Advocacy, Meeting/partnership</t>
-  </si>
-  <si>
-    <t>Huddle Navigation</t>
-  </si>
-  <si>
-    <t>Follow up on unhoused contacts,  team meeting,  newsletter submissions,  return calls</t>
-  </si>
-  <si>
-    <t>administrative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advocacy, </t>
-  </si>
-  <si>
-    <t>scheduling meeting/ tour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client navigation </t>
-  </si>
-  <si>
-    <t>Schedule appointments</t>
-  </si>
-  <si>
-    <t>Followed up 22 contacts collected throughout the week.  Impact and engagement forms. Follow up  calls</t>
-  </si>
-  <si>
-    <t>tour and partnership</t>
-  </si>
-  <si>
-    <t>CUC MEETING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partnership Building </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUC/MONTHLY MEETING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team huddle,  meeting with Cameron, meeting with Misha and Arie to best determine coverage for the remainder of the week. Also sure we are on the same page on form submission </t>
-  </si>
-  <si>
-    <t>Community engagement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacity Building </t>
-  </si>
-  <si>
-    <t>huddle</t>
-  </si>
-  <si>
-    <t>Community engagement /outreach networking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movement is medicine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTAAF Conference Presentation (advocacy of BMHC + AMEN movement is medicine ) </t>
-  </si>
-  <si>
-    <t>Advocacy, Tabling, Presentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHO Pilot Program </t>
-  </si>
-  <si>
-    <t>BMHC + KAZI Basketball Tournament</t>
-  </si>
-  <si>
-    <t>Downtown Austin Community Court Onsite Outreach</t>
-  </si>
-  <si>
-    <t>Movement Is Medicine</t>
-  </si>
-  <si>
-    <t>Outreach 1 to 1 Strategy Meetings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMHC Weekly Team Huddle </t>
-  </si>
-  <si>
-    <t>Healthy Cuts/Know Your Numbers Event at Community First Village</t>
-  </si>
-  <si>
-    <t>Collaboration</t>
-  </si>
-  <si>
-    <t>Potential partnering for mammogram services on site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movement is Medicine</t>
-  </si>
-  <si>
-    <t>NA - Team Meeting</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Weekly Meeting Updates</t>
-  </si>
-  <si>
-    <t>Movement is medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onsite Outreach </t>
-  </si>
-  <si>
-    <t>Coordination of services</t>
-  </si>
-  <si>
-    <t>PSH Caseworker calls and updates</t>
-  </si>
-  <si>
-    <t>Event (virtual)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHO PSH </t>
-  </si>
-  <si>
-    <t>In person event</t>
-  </si>
-  <si>
-    <t>Weekly staff meeting</t>
-  </si>
-  <si>
-    <t>Community Engagement</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Huddle weekly meeting</t>
-  </si>
-  <si>
-    <t>Continuous education/Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Event /Tabling </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW PROPERTY TOUR </t>
-  </si>
-  <si>
-    <t>PSH HMIS Updates</t>
-  </si>
-  <si>
-    <t>meeting via phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building Relationships </t>
-  </si>
-  <si>
-    <t xml:space="preserve">build relationship </t>
-  </si>
-  <si>
-    <t>psh updates</t>
-  </si>
-  <si>
-    <t>Discovery Meeting: Learn about each organization’s mission, values, and potential alignment.</t>
-  </si>
-  <si>
-    <t>Collaboration of development of co-programs (ministry and GUD LIFE)</t>
-  </si>
-  <si>
-    <t>PSH File updates</t>
   </si>
   <si>
     <t>BMHC Implementation studio Consultation Call</t>
@@ -641,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +567,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2">
-        <v>1310</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -665,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -673,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>196</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -689,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -697,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -705,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -713,7 +623,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -721,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -729,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -737,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -745,7 +655,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -753,7 +663,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -761,7 +671,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -777,7 +687,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -785,7 +695,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -793,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1121,246 +1031,6 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90">
         <v>1</v>
       </c>
     </row>
